--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  HERRADURA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  HERRADURA  ENERO 2023.xlsx
@@ -145,8 +145,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -350,6 +408,18 @@
   </si>
   <si>
     <t>00643 D</t>
+  </si>
+  <si>
+    <t>LONGANIZA</t>
+  </si>
+  <si>
+    <t>LONGANIZA--ARABE</t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL</t>
+  </si>
+  <si>
+    <t>NOMINA # 2</t>
   </si>
 </sst>
 </file>
@@ -738,7 +808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +857,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="62">
     <border>
@@ -1548,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1990,6 +2066,69 @@
     <xf numFmtId="164" fontId="46" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2017,33 +2156,6 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2068,42 +2180,7 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2979,6 +3056,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="14220824"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="13725525"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="14220824"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="13706475"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="12839697"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="14532725"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="14554200"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3247,8 +3750,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,23 +3776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="236"/>
-      <c r="C1" s="238" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="237"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3299,21 +3802,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="241"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="242" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="242"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="227" t="s">
+      <c r="R3" s="248" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3328,14 +3831,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="251"/>
+      <c r="H4" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="253"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -3345,11 +3848,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="233" t="s">
+      <c r="P4" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="228"/>
+      <c r="Q4" s="255"/>
+      <c r="R4" s="249"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -3359,9 +3862,11 @@
         <v>44935</v>
       </c>
       <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26"/>
+        <v>1560</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" s="27">
         <v>44935</v>
       </c>
@@ -3373,28 +3878,28 @@
         <v>44935</v>
       </c>
       <c r="I5" s="31">
-        <v>0</v>
+        <v>1037.5</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="32"/>
       <c r="L5" s="9"/>
       <c r="M5" s="33">
-        <v>0</v>
+        <f>119403.5+16000</f>
+        <v>135403.5</v>
       </c>
       <c r="N5" s="34">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="36">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>142001</v>
       </c>
       <c r="Q5" s="13">
-        <f>P5-F5</f>
-        <v>-124911</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="265">
+        <v>17090</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -3418,28 +3923,27 @@
         <v>44936</v>
       </c>
       <c r="I6" s="31">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
       <c r="M6" s="33">
-        <v>0</v>
+        <v>83871</v>
       </c>
       <c r="N6" s="34">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="36">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>84988</v>
       </c>
       <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q48" si="0">P6-F6</f>
-        <v>-71188</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="265">
+        <v>13800</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="9"/>
@@ -3450,9 +3954,11 @@
         <v>44937</v>
       </c>
       <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="42"/>
+        <v>4414</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="27">
         <v>44937</v>
       </c>
@@ -3464,25 +3970,25 @@
         <v>44937</v>
       </c>
       <c r="I7" s="31">
-        <v>0</v>
+        <v>133.5</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="43"/>
       <c r="L7" s="41"/>
       <c r="M7" s="33">
-        <v>0</v>
+        <v>42630.5</v>
       </c>
       <c r="N7" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="36">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>47678</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="0"/>
-        <v>-47678</v>
+        <f t="shared" ref="Q6:Q48" si="0">P7-F7</f>
+        <v>0</v>
       </c>
       <c r="R7" s="13">
         <v>0</v>
@@ -3502,35 +4008,35 @@
         <v>44938</v>
       </c>
       <c r="F8" s="28">
-        <v>49692</v>
+        <v>64345</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30">
         <v>44938</v>
       </c>
       <c r="I8" s="31">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="41"/>
       <c r="M8" s="33">
-        <v>0</v>
+        <f>17000+50662.5</f>
+        <v>67662.5</v>
       </c>
       <c r="N8" s="34">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="36">
         <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>68971</v>
       </c>
       <c r="Q8" s="13">
-        <f t="shared" si="0"/>
-        <v>-49692</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="265">
+        <v>4626</v>
       </c>
       <c r="S8" s="37"/>
     </row>
@@ -3540,9 +4046,11 @@
         <v>44939</v>
       </c>
       <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="46"/>
+        <v>21636</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="E9" s="27">
         <v>44939</v>
       </c>
@@ -3554,25 +4062,26 @@
         <v>44939</v>
       </c>
       <c r="I9" s="31">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="47"/>
       <c r="L9" s="41"/>
       <c r="M9" s="33">
-        <v>0</v>
+        <f>50000+37473</f>
+        <v>87473</v>
       </c>
       <c r="N9" s="34">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109777</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="0"/>
-        <v>-109777</v>
+        <v>0</v>
       </c>
       <c r="R9" s="13">
         <v>0</v>
@@ -3599,25 +4108,32 @@
         <v>44940</v>
       </c>
       <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
+        <v>374</v>
+      </c>
+      <c r="J10" s="39">
+        <v>44940</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="49">
+        <v>8900</v>
+      </c>
       <c r="M10" s="33">
-        <v>0</v>
+        <f>20748+20000</f>
+        <v>40748</v>
       </c>
       <c r="N10" s="34">
-        <v>0</v>
+        <v>9323</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="36">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>59345</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="0"/>
-        <v>-59345</v>
+        <v>0</v>
       </c>
       <c r="R10" s="13">
         <v>0</v>
@@ -3640,7 +4156,7 @@
         <v>44941</v>
       </c>
       <c r="F11" s="28">
-        <v>119768</v>
+        <v>0</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
@@ -3665,7 +4181,7 @@
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="0"/>
-        <v>-119768</v>
+        <v>0</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -3685,7 +4201,7 @@
         <v>44942</v>
       </c>
       <c r="F12" s="28">
-        <v>132033</v>
+        <v>0</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
@@ -3710,7 +4226,7 @@
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="0"/>
-        <v>-132033</v>
+        <v>0</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -3730,7 +4246,7 @@
         <v>44943</v>
       </c>
       <c r="F13" s="28">
-        <v>79932</v>
+        <v>0</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
@@ -3755,7 +4271,7 @@
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="0"/>
-        <v>-79932</v>
+        <v>0</v>
       </c>
       <c r="R13" s="13">
         <v>0</v>
@@ -3775,7 +4291,7 @@
         <v>44944</v>
       </c>
       <c r="F14" s="28">
-        <v>37644</v>
+        <v>0</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
@@ -3800,7 +4316,7 @@
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="0"/>
-        <v>-37644</v>
+        <v>0</v>
       </c>
       <c r="R14" s="13">
         <v>0</v>
@@ -3820,7 +4336,7 @@
         <v>44945</v>
       </c>
       <c r="F15" s="28">
-        <v>87735</v>
+        <v>0</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
@@ -3845,7 +4361,7 @@
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="0"/>
-        <v>-87735</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -3865,7 +4381,7 @@
         <v>44946</v>
       </c>
       <c r="F16" s="28">
-        <v>81640</v>
+        <v>0</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
@@ -3890,7 +4406,7 @@
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="0"/>
-        <v>-81640</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
@@ -3910,7 +4426,7 @@
         <v>44947</v>
       </c>
       <c r="F17" s="28">
-        <v>65320</v>
+        <v>0</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
@@ -3935,7 +4451,7 @@
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="0"/>
-        <v>-65320</v>
+        <v>0</v>
       </c>
       <c r="R17" s="13">
         <v>0</v>
@@ -3955,7 +4471,7 @@
         <v>44948</v>
       </c>
       <c r="F18" s="28">
-        <v>110009</v>
+        <v>0</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
@@ -3980,7 +4496,7 @@
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="0"/>
-        <v>-110009</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13">
         <v>0</v>
@@ -4000,7 +4516,7 @@
         <v>44949</v>
       </c>
       <c r="F19" s="28">
-        <v>64409</v>
+        <v>0</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
@@ -4025,7 +4541,7 @@
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="0"/>
-        <v>-64409</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13">
         <v>0</v>
@@ -4045,7 +4561,7 @@
         <v>44950</v>
       </c>
       <c r="F20" s="28">
-        <v>132246</v>
+        <v>0</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
@@ -4070,7 +4586,7 @@
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="0"/>
-        <v>-132246</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13">
         <v>0</v>
@@ -4090,7 +4606,7 @@
         <v>44951</v>
       </c>
       <c r="F21" s="28">
-        <v>62087</v>
+        <v>0</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
@@ -4134,7 +4650,7 @@
         <v>44952</v>
       </c>
       <c r="F22" s="28">
-        <v>62127</v>
+        <v>0</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
@@ -4159,7 +4675,7 @@
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="0"/>
-        <v>-62127</v>
+        <v>0</v>
       </c>
       <c r="R22" s="13">
         <v>0</v>
@@ -4179,7 +4695,7 @@
         <v>44953</v>
       </c>
       <c r="F23" s="28">
-        <v>102367</v>
+        <v>0</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
@@ -4204,7 +4720,7 @@
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="0"/>
-        <v>-102367</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13">
         <v>0</v>
@@ -4224,7 +4740,7 @@
         <v>44954</v>
       </c>
       <c r="F24" s="28">
-        <v>69253</v>
+        <v>0</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
@@ -4249,7 +4765,7 @@
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="0"/>
-        <v>-69253</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>
@@ -4269,7 +4785,7 @@
         <v>44955</v>
       </c>
       <c r="F25" s="28">
-        <v>100451</v>
+        <v>0</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
@@ -4294,7 +4810,7 @@
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="0"/>
-        <v>-100451</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13">
         <v>0</v>
@@ -4310,7 +4826,7 @@
         <v>44956</v>
       </c>
       <c r="F26" s="28">
-        <v>65454</v>
+        <v>0</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
@@ -4331,7 +4847,7 @@
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="0"/>
-        <v>-65454</v>
+        <v>0</v>
       </c>
       <c r="R26" s="13">
         <v>0</v>
@@ -4347,7 +4863,7 @@
         <v>44957</v>
       </c>
       <c r="F27" s="28">
-        <v>65983</v>
+        <v>0</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
@@ -4368,7 +4884,7 @@
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="0"/>
-        <v>-65983</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13">
         <v>0</v>
@@ -4380,10 +4896,10 @@
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="225">
+      <c r="E28" s="27">
         <v>44927</v>
       </c>
-      <c r="F28" s="226">
+      <c r="F28" s="28">
         <v>0</v>
       </c>
       <c r="G28" s="29"/>
@@ -4420,8 +4936,8 @@
       <c r="E29" s="27">
         <v>44928</v>
       </c>
-      <c r="F29" s="90">
-        <v>98421</v>
+      <c r="F29" s="28">
+        <v>0</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
@@ -4442,7 +4958,7 @@
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="0"/>
-        <v>-98421</v>
+        <v>0</v>
       </c>
       <c r="R29" s="13">
         <v>0</v>
@@ -4458,8 +4974,8 @@
       <c r="E30" s="27">
         <v>44929</v>
       </c>
-      <c r="F30" s="90">
-        <v>79048</v>
+      <c r="F30" s="28">
+        <v>0</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
@@ -4480,7 +4996,7 @@
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="0"/>
-        <v>-79048</v>
+        <v>0</v>
       </c>
       <c r="R30" s="13">
         <v>0</v>
@@ -4495,8 +5011,8 @@
       <c r="E31" s="27">
         <v>44930</v>
       </c>
-      <c r="F31" s="90">
-        <v>66581</v>
+      <c r="F31" s="28">
+        <v>0</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
@@ -4517,7 +5033,7 @@
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="0"/>
-        <v>-66581</v>
+        <v>0</v>
       </c>
       <c r="R31" s="13">
         <v>0</v>
@@ -4532,8 +5048,8 @@
       <c r="E32" s="27">
         <v>44931</v>
       </c>
-      <c r="F32" s="90">
-        <v>103632</v>
+      <c r="F32" s="28">
+        <v>0</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
@@ -4554,7 +5070,7 @@
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="0"/>
-        <v>-103632</v>
+        <v>0</v>
       </c>
       <c r="R32" s="13">
         <v>0</v>
@@ -4569,8 +5085,8 @@
       <c r="E33" s="27">
         <v>44932</v>
       </c>
-      <c r="F33" s="90">
-        <v>122830</v>
+      <c r="F33" s="28">
+        <v>0</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
@@ -4591,7 +5107,7 @@
       </c>
       <c r="Q33" s="13">
         <f t="shared" si="0"/>
-        <v>-122830</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13">
         <v>0</v>
@@ -4606,8 +5122,8 @@
       <c r="E34" s="27">
         <v>44933</v>
       </c>
-      <c r="F34" s="90">
-        <v>79649</v>
+      <c r="F34" s="28">
+        <v>0</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
@@ -4628,7 +5144,7 @@
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="0"/>
-        <v>-79649</v>
+        <v>0</v>
       </c>
       <c r="R34" s="13">
         <v>0</v>
@@ -4643,8 +5159,8 @@
       <c r="E35" s="27">
         <v>44934</v>
       </c>
-      <c r="F35" s="90">
-        <v>99106</v>
+      <c r="F35" s="28">
+        <v>0</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
@@ -4665,7 +5181,7 @@
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="0"/>
-        <v>-99106</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13">
         <v>0</v>
@@ -5112,21 +5628,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="243">
+      <c r="M49" s="246">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="245">
+        <v>457788.5</v>
+      </c>
+      <c r="N49" s="257">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>16534</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>474322.5</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>-2488229</v>
+        <v>0</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -5145,8 +5661,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="244"/>
-      <c r="N50" s="246"/>
+      <c r="M50" s="247"/>
+      <c r="N50" s="258"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -5322,7 +5838,7 @@
       </c>
       <c r="C60" s="124">
         <f>SUM(C5:C59)</f>
-        <v>0</v>
+        <v>27610</v>
       </c>
       <c r="D60" s="125"/>
       <c r="E60" s="126" t="s">
@@ -5330,7 +5846,7 @@
       </c>
       <c r="F60" s="127">
         <f>SUM(F5:F59)</f>
-        <v>2550316</v>
+        <v>477244</v>
       </c>
       <c r="G60" s="125"/>
       <c r="H60" s="128" t="s">
@@ -5338,7 +5854,7 @@
       </c>
       <c r="I60" s="129">
         <f>SUM(I5:I59)</f>
-        <v>0</v>
+        <v>1927.5</v>
       </c>
       <c r="J60" s="130"/>
       <c r="K60" s="131" t="s">
@@ -5346,7 +5862,7 @@
       </c>
       <c r="L60" s="132">
         <f>SUM(L5:L59)</f>
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="133"/>
@@ -5364,32 +5880,32 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="247" t="s">
+      <c r="H62" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="248"/>
+      <c r="I62" s="260"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="249">
+      <c r="K62" s="261">
         <f>I60+L60</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="250"/>
-      <c r="M62" s="251">
+        <v>10827.5</v>
+      </c>
+      <c r="L62" s="262"/>
+      <c r="M62" s="263">
         <f>N49+M49</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="252"/>
+        <v>474322.5</v>
+      </c>
+      <c r="N62" s="264"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="235" t="s">
+      <c r="D63" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="235"/>
+      <c r="E63" s="256"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
-        <v>2550316</v>
+        <v>438806.5</v>
       </c>
       <c r="I63" s="139"/>
       <c r="J63" s="140"/>
@@ -5397,22 +5913,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="253" t="s">
+      <c r="D64" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="253"/>
+      <c r="E64" s="227"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="254" t="s">
+      <c r="I64" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="255"/>
-      <c r="K64" s="256">
+      <c r="J64" s="229"/>
+      <c r="K64" s="230">
         <f>F66+F67+F68</f>
-        <v>1249449.42</v>
-      </c>
-      <c r="L64" s="257"/>
+        <v>-862060.08</v>
+      </c>
+      <c r="L64" s="231"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -5436,18 +5952,18 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>1025920.52</v>
+        <v>-1085588.98</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="258">
+      <c r="K66" s="232">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="259"/>
+      <c r="L66" s="233"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -5464,22 +5980,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="260" t="s">
+      <c r="D68" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="261"/>
+      <c r="E68" s="235"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="262" t="s">
+      <c r="I68" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="263"/>
-      <c r="K68" s="264">
+      <c r="J68" s="237"/>
+      <c r="K68" s="238">
         <f>K64+K66</f>
-        <v>1249449.42</v>
-      </c>
-      <c r="L68" s="264"/>
+        <v>-862060.08</v>
+      </c>
+      <c r="L68" s="238"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -5604,18 +6120,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -5625,6 +6129,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6991,23 +7507,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="236"/>
-      <c r="C1" s="238" t="s">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="237"/>
+      <c r="B2" s="240"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7017,21 +7533,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="240" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="241"/>
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="242" t="s">
+      <c r="H3" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="242"/>
+      <c r="I3" s="245"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="227" t="s">
+      <c r="R3" s="248" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7046,14 +7562,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="230"/>
-      <c r="H4" s="231" t="s">
+      <c r="F4" s="251"/>
+      <c r="H4" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="232"/>
+      <c r="I4" s="253"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7063,11 +7579,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="233" t="s">
+      <c r="P4" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="228"/>
+      <c r="Q4" s="255"/>
+      <c r="R4" s="249"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8886,11 +9402,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="243">
+      <c r="M49" s="246">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="245">
+      <c r="N49" s="257">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -8919,8 +9435,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="244"/>
-      <c r="N50" s="246"/>
+      <c r="M50" s="247"/>
+      <c r="N50" s="258"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9138,29 +9654,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="247" t="s">
+      <c r="H62" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="248"/>
+      <c r="I62" s="260"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="249">
+      <c r="K62" s="261">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="250"/>
-      <c r="M62" s="251">
+      <c r="L62" s="262"/>
+      <c r="M62" s="263">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="252"/>
+      <c r="N62" s="264"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="235" t="s">
+      <c r="D63" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="235"/>
+      <c r="E63" s="256"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>0</v>
@@ -9171,22 +9687,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="253" t="s">
+      <c r="D64" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="253"/>
+      <c r="E64" s="227"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="254" t="s">
+      <c r="I64" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="255"/>
-      <c r="K64" s="256">
+      <c r="J64" s="229"/>
+      <c r="K64" s="230">
         <f>F66+F67+F68</f>
         <v>-1524395.48</v>
       </c>
-      <c r="L64" s="257"/>
+      <c r="L64" s="231"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -9217,11 +9733,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="258">
+      <c r="K66" s="232">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="259"/>
+      <c r="L66" s="233"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -9238,22 +9754,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="260" t="s">
+      <c r="D68" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="261"/>
+      <c r="E68" s="235"/>
       <c r="F68" s="153">
         <v>0</v>
       </c>
-      <c r="I68" s="262" t="s">
+      <c r="I68" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="263"/>
-      <c r="K68" s="264">
+      <c r="J68" s="237"/>
+      <c r="K68" s="238">
         <f>K64+K66</f>
         <v>-1524395.48</v>
       </c>
-      <c r="L68" s="264"/>
+      <c r="L68" s="238"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -9378,18 +9894,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9399,6 +9903,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10607,13 +11123,2393 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="134" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="239"/>
+      <c r="C1" s="241" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="240"/>
+      <c r="C2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="244"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="245"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="6"/>
+      <c r="R3" s="248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>44934</v>
+      </c>
+      <c r="E4" s="250" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="251"/>
+      <c r="H4" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="253"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="254" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="255"/>
+      <c r="R4" s="249"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44935</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27">
+        <v>44935</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30">
+        <v>44935</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34">
+        <v>0</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0</v>
+      </c>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>44936</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="27">
+        <v>44936</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
+        <v>44936</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34">
+        <v>0</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" ref="Q6:Q48" si="0">P6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="37"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>44937</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="27">
+        <v>44937</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
+        <v>44937</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="33">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>44938</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="27">
+        <v>44938</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30">
+        <v>44938</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36">
+        <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>44939</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="27">
+        <v>44939</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30">
+        <v>44939</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="34">
+        <v>0</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>44940</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="27">
+        <v>44940</v>
+      </c>
+      <c r="F10" s="28">
+        <v>59345</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30">
+        <v>44940</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="33">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="0"/>
+        <v>-59345</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0</v>
+      </c>
+      <c r="S10" s="37"/>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>44941</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="27">
+        <v>44941</v>
+      </c>
+      <c r="F11" s="28">
+        <v>119768</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
+        <v>44941</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="33">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="0"/>
+        <v>-119768</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>44942</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="27">
+        <v>44942</v>
+      </c>
+      <c r="F12" s="28">
+        <v>132033</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30">
+        <v>44942</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="33">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <v>0</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="0"/>
+        <v>-132033</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>44943</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27">
+        <v>44943</v>
+      </c>
+      <c r="F13" s="28">
+        <v>79932</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30">
+        <v>44943</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
+        <v>0</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="0"/>
+        <v>-79932</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>44944</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="27">
+        <v>44944</v>
+      </c>
+      <c r="F14" s="28">
+        <v>37644</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30">
+        <v>44944</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="0"/>
+        <v>-37644</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>44945</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="27">
+        <v>44945</v>
+      </c>
+      <c r="F15" s="28">
+        <v>87735</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30">
+        <v>44945</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <v>0</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="0"/>
+        <v>-87735</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>44946</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="27">
+        <v>44946</v>
+      </c>
+      <c r="F16" s="28">
+        <v>81640</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30">
+        <v>44946</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="33">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="0"/>
+        <v>-81640</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>44947</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="27">
+        <v>44947</v>
+      </c>
+      <c r="F17" s="28">
+        <v>65320</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30">
+        <v>44947</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="33">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="0"/>
+        <v>-65320</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>44948</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="27">
+        <v>44948</v>
+      </c>
+      <c r="F18" s="28">
+        <v>110009</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30">
+        <v>44948</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N18" s="34">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="0"/>
+        <v>-110009</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="37"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>44949</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="27">
+        <v>44949</v>
+      </c>
+      <c r="F19" s="28">
+        <v>64409</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30">
+        <v>44949</v>
+      </c>
+      <c r="I19" s="31">
+        <v>0</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="0"/>
+        <v>-64409</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>44950</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="27">
+        <v>44950</v>
+      </c>
+      <c r="F20" s="28">
+        <v>132246</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30">
+        <v>44950</v>
+      </c>
+      <c r="I20" s="31">
+        <v>0</v>
+      </c>
+      <c r="J20" s="39"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="33">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="0"/>
+        <v>-132246</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>44951</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="27">
+        <v>44951</v>
+      </c>
+      <c r="F21" s="28">
+        <v>62087</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30">
+        <v>44951</v>
+      </c>
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="33">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>44952</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="27">
+        <v>44952</v>
+      </c>
+      <c r="F22" s="28">
+        <v>62127</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30">
+        <v>44952</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="33">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="0"/>
+        <v>-62127</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>44953</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="27">
+        <v>44953</v>
+      </c>
+      <c r="F23" s="28">
+        <v>102367</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30">
+        <v>44953</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
+        <v>0</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="0"/>
+        <v>-102367</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="37"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>44954</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="27">
+        <v>44954</v>
+      </c>
+      <c r="F24" s="28">
+        <v>69253</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30">
+        <v>44954</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0</v>
+      </c>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="33">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34">
+        <v>0</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="0"/>
+        <v>-69253</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
+      <c r="S24" s="37"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>44955</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="27">
+        <v>44955</v>
+      </c>
+      <c r="F25" s="28">
+        <v>100451</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30">
+        <v>44955</v>
+      </c>
+      <c r="I25" s="31">
+        <v>0</v>
+      </c>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0</v>
+      </c>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="0"/>
+        <v>-100451</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="37"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="27">
+        <v>44956</v>
+      </c>
+      <c r="F26" s="28">
+        <v>65454</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="34">
+        <v>0</v>
+      </c>
+      <c r="O26" s="35"/>
+      <c r="P26" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="0"/>
+        <v>-65454</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
+        <v>44957</v>
+      </c>
+      <c r="F27" s="28">
+        <v>65983</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="33">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34">
+        <v>0</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="0"/>
+        <v>-65983</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="225">
+        <v>44927</v>
+      </c>
+      <c r="F28" s="226">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="33">
+        <v>0</v>
+      </c>
+      <c r="N28" s="34">
+        <v>0</v>
+      </c>
+      <c r="O28" s="35"/>
+      <c r="P28" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="37"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="27">
+        <v>44928</v>
+      </c>
+      <c r="F29" s="90">
+        <v>98421</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="33">
+        <v>0</v>
+      </c>
+      <c r="N29" s="34">
+        <v>0</v>
+      </c>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="0"/>
+        <v>-98421</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="37"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="27">
+        <v>44929</v>
+      </c>
+      <c r="F30" s="90">
+        <v>79048</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="33">
+        <v>0</v>
+      </c>
+      <c r="N30" s="34">
+        <v>0</v>
+      </c>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="0"/>
+        <v>-79048</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="27">
+        <v>44930</v>
+      </c>
+      <c r="F31" s="90">
+        <v>66581</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="33">
+        <v>0</v>
+      </c>
+      <c r="N31" s="34">
+        <v>0</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="P31" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="0"/>
+        <v>-66581</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0</v>
+      </c>
+      <c r="S31" s="37"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="27">
+        <v>44931</v>
+      </c>
+      <c r="F32" s="90">
+        <v>103632</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0</v>
+      </c>
+      <c r="O32" s="35"/>
+      <c r="P32" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="0"/>
+        <v>-103632</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="37"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="27">
+        <v>44932</v>
+      </c>
+      <c r="F33" s="90">
+        <v>122830</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <f t="shared" si="0"/>
+        <v>-122830</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0</v>
+      </c>
+      <c r="S33" s="37"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="27">
+        <v>44933</v>
+      </c>
+      <c r="F34" s="90">
+        <v>79649</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="33">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="35"/>
+      <c r="P34" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="0"/>
+        <v>-79649</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
+      <c r="S34" s="37"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="27">
+        <v>44934</v>
+      </c>
+      <c r="F35" s="90">
+        <v>99106</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="33">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0</v>
+      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="0"/>
+        <v>-99106</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0</v>
+      </c>
+      <c r="S35" s="37"/>
+    </row>
+    <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="33">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0</v>
+      </c>
+      <c r="O36" s="35"/>
+      <c r="P36" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0</v>
+      </c>
+      <c r="S36" s="37"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="33">
+        <v>0</v>
+      </c>
+      <c r="N37" s="34">
+        <v>0</v>
+      </c>
+      <c r="O37" s="35"/>
+      <c r="P37" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0</v>
+      </c>
+      <c r="S37" s="37"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="33">
+        <v>0</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0</v>
+      </c>
+      <c r="O38" s="35"/>
+      <c r="P38" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0</v>
+      </c>
+      <c r="S38" s="37"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="33">
+        <v>0</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="13">
+        <v>0</v>
+      </c>
+      <c r="S39" s="37"/>
+    </row>
+    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="33">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="13">
+        <v>0</v>
+      </c>
+      <c r="S40" s="37"/>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="33">
+        <v>0</v>
+      </c>
+      <c r="N41" s="34">
+        <v>0</v>
+      </c>
+      <c r="O41" s="35"/>
+      <c r="P41" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="13">
+        <v>0</v>
+      </c>
+      <c r="S41" s="37"/>
+    </row>
+    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="33">
+        <v>0</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0</v>
+      </c>
+      <c r="O42" s="35"/>
+      <c r="P42" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0</v>
+      </c>
+      <c r="S42" s="37"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="33">
+        <v>0</v>
+      </c>
+      <c r="N43" s="34">
+        <v>0</v>
+      </c>
+      <c r="O43" s="35"/>
+      <c r="P43" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="13">
+        <v>0</v>
+      </c>
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="33">
+        <v>0</v>
+      </c>
+      <c r="N44" s="34">
+        <v>0</v>
+      </c>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0</v>
+      </c>
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="33">
+        <v>0</v>
+      </c>
+      <c r="N45" s="34">
+        <v>0</v>
+      </c>
+      <c r="O45" s="35"/>
+      <c r="P45" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="13">
+        <v>0</v>
+      </c>
+      <c r="S45" s="37"/>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="33">
+        <v>0</v>
+      </c>
+      <c r="N46" s="34">
+        <v>0</v>
+      </c>
+      <c r="O46" s="35"/>
+      <c r="P46" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+      <c r="S46" s="37"/>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="33">
+        <v>0</v>
+      </c>
+      <c r="N47" s="34">
+        <v>0</v>
+      </c>
+      <c r="O47" s="35"/>
+      <c r="P47" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0</v>
+      </c>
+      <c r="S47" s="37"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="92">
+        <v>0</v>
+      </c>
+      <c r="N48" s="93"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0</v>
+      </c>
+      <c r="S48" s="37"/>
+    </row>
+    <row r="49" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="246">
+        <f>SUM(M5:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="257">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="99">
+        <f>SUM(Q5:Q39)</f>
+        <v>-2084983</v>
+      </c>
+      <c r="R49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="247"/>
+      <c r="N50" s="258"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="106"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="106"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="106"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="106"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="106"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="106"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="106"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="106"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="25">
+        <v>0</v>
+      </c>
+      <c r="D59" s="117"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="108"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="122"/>
+      <c r="N59" s="34"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="124">
+        <f>SUM(C5:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="125"/>
+      <c r="E60" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="127">
+        <f>SUM(F5:F59)</f>
+        <v>2147070</v>
+      </c>
+      <c r="G60" s="125"/>
+      <c r="H60" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="129">
+        <f>SUM(I5:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="130"/>
+      <c r="K60" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="132">
+        <f>SUM(L5:L59)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="135"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="1"/>
+      <c r="H62" s="259" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="260"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="261">
+        <f>I60+L60</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="262"/>
+      <c r="M62" s="263">
+        <f>N49+M49</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="264"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D63" s="256" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="256"/>
+      <c r="F63" s="138">
+        <f>F60-K62-C60</f>
+        <v>2147070</v>
+      </c>
+      <c r="I63" s="139"/>
+      <c r="J63" s="140"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D64" s="227" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="227"/>
+      <c r="F64" s="133">
+        <v>-1524395.48</v>
+      </c>
+      <c r="I64" s="228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="229"/>
+      <c r="K64" s="230">
+        <f>F66+F67+F68</f>
+        <v>846203.42</v>
+      </c>
+      <c r="L64" s="231"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D65" s="141"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="143">
+        <v>0</v>
+      </c>
+      <c r="I65" s="144"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="147"/>
+    </row>
+    <row r="66" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="133">
+        <f>SUM(F63:F65)</f>
+        <v>622674.52</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="149"/>
+      <c r="K66" s="232">
+        <f>-C4</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="233"/>
+    </row>
+    <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="152">
+        <v>44955</v>
+      </c>
+      <c r="D68" s="234" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="235"/>
+      <c r="F68" s="153">
+        <v>223528.9</v>
+      </c>
+      <c r="I68" s="236" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="237"/>
+      <c r="K68" s="238">
+        <f>K64+K66</f>
+        <v>846203.42</v>
+      </c>
+      <c r="L68" s="238"/>
+    </row>
+    <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C69" s="154"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="157"/>
+      <c r="J69" s="158"/>
+    </row>
+    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="160"/>
+      <c r="L70" s="160"/>
+    </row>
+    <row r="71" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="161"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="36"/>
+      <c r="I71" s="159"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="160"/>
+      <c r="L71" s="160"/>
+      <c r="M71" s="164"/>
+      <c r="N71" s="135"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="161"/>
+      <c r="C72" s="165"/>
+      <c r="E72" s="36"/>
+      <c r="M72" s="164"/>
+      <c r="N72" s="135"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="161"/>
+      <c r="C73" s="165"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="166"/>
+      <c r="L73" s="167"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="161"/>
+      <c r="C74" s="165"/>
+      <c r="E74" s="36"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="161"/>
+      <c r="C75" s="165"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="168"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E76" s="169"/>
+      <c r="F76" s="36"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E77" s="169"/>
+      <c r="F77" s="36"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E78" s="169"/>
+      <c r="F78" s="36"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E79" s="169"/>
+      <c r="F79" s="36"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E80" s="169"/>
+      <c r="F80" s="36"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="169"/>
+      <c r="F81" s="36"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" s="169"/>
+      <c r="F82" s="36"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E83" s="169"/>
+      <c r="F83" s="36"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E84" s="169"/>
+      <c r="F84" s="36"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="169"/>
+      <c r="F85" s="36"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E86" s="169"/>
+      <c r="F86" s="36"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="169"/>
+      <c r="F87" s="36"/>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="168"/>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F89" s="168"/>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F90" s="168"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  HERRADURA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  HERRADURA  ENERO 2023.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>NOMINA # 2</t>
+  </si>
+  <si>
+    <t>Inspeccion Bascula</t>
+  </si>
+  <si>
+    <t>BONOS ANUAL</t>
+  </si>
+  <si>
+    <t>NOMINA # 3</t>
+  </si>
+  <si>
+    <t>GOUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONGANIZA--COMPRAS CENTRAL </t>
+  </si>
+  <si>
+    <t>NOMINA # 4</t>
   </si>
 </sst>
 </file>
@@ -808,7 +826,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +881,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="62">
     <border>
@@ -1624,7 +1654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2066,6 +2096,11 @@
     <xf numFmtId="164" fontId="46" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2180,7 +2215,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2190,6 +2224,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -3750,8 +3786,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,23 +3812,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="243"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3802,21 +3838,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="248"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="251" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3831,14 +3867,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="250" t="s">
+      <c r="E4" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="251"/>
-      <c r="H4" s="252" t="s">
+      <c r="F4" s="254"/>
+      <c r="H4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="253"/>
+      <c r="I4" s="256"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -3848,11 +3884,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="254" t="s">
+      <c r="P4" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="252"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -3898,7 +3934,7 @@
       <c r="Q5" s="13">
         <v>0</v>
       </c>
-      <c r="R5" s="265">
+      <c r="R5" s="227">
         <v>17090</v>
       </c>
       <c r="S5" s="37"/>
@@ -3942,7 +3978,7 @@
       <c r="Q6" s="13">
         <v>0</v>
       </c>
-      <c r="R6" s="265">
+      <c r="R6" s="227">
         <v>13800</v>
       </c>
       <c r="S6" s="37"/>
@@ -3987,7 +4023,7 @@
         <v>47678</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" ref="Q6:Q48" si="0">P7-F7</f>
+        <f t="shared" ref="Q7:Q48" si="0">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="13">
@@ -4035,7 +4071,7 @@
       <c r="Q8" s="13">
         <v>0</v>
       </c>
-      <c r="R8" s="265">
+      <c r="R8" s="227">
         <v>4626</v>
       </c>
       <c r="S8" s="37"/>
@@ -4156,39 +4192,39 @@
         <v>44941</v>
       </c>
       <c r="F11" s="28">
-        <v>0</v>
+        <v>119768</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
         <v>44941</v>
       </c>
       <c r="I11" s="31">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="50"/>
       <c r="L11" s="41"/>
       <c r="M11" s="33">
-        <v>0</v>
+        <f>126400+6954</f>
+        <v>133354</v>
       </c>
       <c r="N11" s="34">
-        <v>0</v>
+        <v>4125</v>
       </c>
       <c r="O11" s="35"/>
       <c r="P11" s="36">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>137588</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R11" s="227">
+        <v>17820</v>
       </c>
       <c r="S11" s="37"/>
     </row>
-    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <v>44942</v>
@@ -4201,28 +4237,35 @@
         <v>44942</v>
       </c>
       <c r="F12" s="28">
-        <v>0</v>
+        <v>132033</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
         <v>44942</v>
       </c>
       <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="J12" s="39">
+        <v>44942</v>
+      </c>
+      <c r="K12" s="228" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="41">
+        <v>2600</v>
+      </c>
       <c r="M12" s="33">
-        <v>0</v>
+        <f>21000+108337</f>
+        <v>129337</v>
       </c>
       <c r="N12" s="34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>132033</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="0"/>
@@ -4246,20 +4289,21 @@
         <v>44943</v>
       </c>
       <c r="F13" s="28">
-        <v>0</v>
+        <v>79932</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
         <v>44943</v>
       </c>
       <c r="I13" s="31">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="40"/>
       <c r="L13" s="41"/>
       <c r="M13" s="33">
-        <v>0</v>
+        <f>20000+59825</f>
+        <v>79825</v>
       </c>
       <c r="N13" s="34">
         <v>0</v>
@@ -4267,7 +4311,7 @@
       <c r="O13" s="35"/>
       <c r="P13" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79932</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="0"/>
@@ -4291,28 +4335,28 @@
         <v>44944</v>
       </c>
       <c r="F14" s="28">
-        <v>0</v>
+        <v>37644</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
         <v>44944</v>
       </c>
       <c r="I14" s="31">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="45"/>
       <c r="L14" s="41"/>
       <c r="M14" s="33">
-        <v>0</v>
+        <v>36780</v>
       </c>
       <c r="N14" s="34">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37644</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="0"/>
@@ -4329,27 +4373,30 @@
         <v>44945</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46"/>
+        <v>2340</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" s="27">
         <v>44945</v>
       </c>
       <c r="F15" s="28">
-        <v>0</v>
+        <v>87735</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <v>44945</v>
       </c>
       <c r="I15" s="31">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="45"/>
       <c r="L15" s="41"/>
       <c r="M15" s="33">
-        <v>0</v>
+        <f>36000+49217</f>
+        <v>85217</v>
       </c>
       <c r="N15" s="34">
         <v>0</v>
@@ -4357,11 +4404,11 @@
       <c r="O15" s="35"/>
       <c r="P15" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87736</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -4381,28 +4428,35 @@
         <v>44946</v>
       </c>
       <c r="F16" s="28">
-        <v>0</v>
+        <v>81640</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
         <v>44946</v>
       </c>
       <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="9"/>
+        <v>327</v>
+      </c>
+      <c r="J16" s="39">
+        <v>44946</v>
+      </c>
+      <c r="K16" s="229" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="9">
+        <v>20500</v>
+      </c>
       <c r="M16" s="33">
-        <v>0</v>
+        <f>21000+37200</f>
+        <v>58200</v>
       </c>
       <c r="N16" s="34">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81640</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="0"/>
@@ -4426,28 +4480,35 @@
         <v>44947</v>
       </c>
       <c r="F17" s="28">
-        <v>0</v>
+        <v>65320</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
         <v>44947</v>
       </c>
       <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="49"/>
+        <v>87</v>
+      </c>
+      <c r="J17" s="39">
+        <v>44947</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="49">
+        <v>10600</v>
+      </c>
       <c r="M17" s="33">
-        <v>0</v>
+        <f>23000+22677</f>
+        <v>45677</v>
       </c>
       <c r="N17" s="34">
-        <v>0</v>
+        <v>8956</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65320</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="0"/>
@@ -4464,42 +4525,45 @@
         <v>44948</v>
       </c>
       <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38"/>
+        <v>12722</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="E18" s="27">
         <v>44948</v>
       </c>
       <c r="F18" s="28">
-        <v>0</v>
+        <v>110009</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
         <v>44948</v>
       </c>
       <c r="I18" s="31">
-        <v>0</v>
+        <v>125.5</v>
       </c>
       <c r="J18" s="39"/>
       <c r="K18" s="54"/>
       <c r="L18" s="41"/>
       <c r="M18" s="33">
-        <v>0</v>
+        <f>83100+7943.5</f>
+        <v>91043.5</v>
       </c>
       <c r="N18" s="34">
-        <v>0</v>
+        <v>6118</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110009</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="13">
-        <v>0</v>
+      <c r="R18" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="S18" s="37"/>
     </row>
@@ -4509,27 +4573,30 @@
         <v>44949</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="38"/>
+        <v>2840</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="27">
         <v>44949</v>
       </c>
       <c r="F19" s="28">
-        <v>0</v>
+        <v>64409</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
         <v>44949</v>
       </c>
       <c r="I19" s="31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J19" s="39"/>
       <c r="K19" s="55"/>
       <c r="L19" s="56"/>
       <c r="M19" s="33">
-        <v>0</v>
+        <f>9000+52544</f>
+        <v>61544</v>
       </c>
       <c r="N19" s="34">
         <v>0</v>
@@ -4537,7 +4604,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64409</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="0"/>
@@ -4561,28 +4628,29 @@
         <v>44950</v>
       </c>
       <c r="F20" s="28">
-        <v>0</v>
+        <v>132246</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
         <v>44950</v>
       </c>
       <c r="I20" s="31">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J20" s="39"/>
       <c r="K20" s="57"/>
       <c r="L20" s="49"/>
       <c r="M20" s="33">
-        <v>0</v>
+        <f>104034+28000</f>
+        <v>132034</v>
       </c>
       <c r="N20" s="34">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>132246</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="0"/>
@@ -4599,38 +4667,42 @@
         <v>44951</v>
       </c>
       <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="38"/>
+        <v>2842</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>75</v>
+      </c>
       <c r="E21" s="27">
         <v>44951</v>
       </c>
       <c r="F21" s="28">
-        <v>0</v>
+        <v>62087</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
         <v>44951</v>
       </c>
       <c r="I21" s="31">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="J21" s="39"/>
       <c r="K21" s="58"/>
       <c r="L21" s="49"/>
       <c r="M21" s="33">
-        <v>0</v>
+        <f>30984+27000</f>
+        <v>57984</v>
       </c>
       <c r="N21" s="34">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>10</v>
+        <v>62087</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R21" s="13">
         <v>0</v>
@@ -4650,28 +4722,29 @@
         <v>44952</v>
       </c>
       <c r="F22" s="28">
-        <v>0</v>
+        <v>62127</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
         <v>44952</v>
       </c>
       <c r="I22" s="31">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="J22" s="39"/>
       <c r="K22" s="45"/>
       <c r="L22" s="59"/>
       <c r="M22" s="33">
-        <v>0</v>
+        <f>40006+21000</f>
+        <v>61006</v>
       </c>
       <c r="N22" s="34">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62127</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="0"/>
@@ -4688,27 +4761,31 @@
         <v>44953</v>
       </c>
       <c r="C23" s="25">
-        <v>0</v>
-      </c>
-      <c r="D23" s="46"/>
+        <f>3340+12198</f>
+        <v>15538</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="E23" s="27">
         <v>44953</v>
       </c>
       <c r="F23" s="28">
-        <v>0</v>
+        <v>102367</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
         <v>44953</v>
       </c>
       <c r="I23" s="31">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="61"/>
       <c r="L23" s="49"/>
       <c r="M23" s="33">
-        <v>0</v>
+        <f>36224+50000</f>
+        <v>86224</v>
       </c>
       <c r="N23" s="34">
         <v>0</v>
@@ -4716,7 +4793,7 @@
       <c r="O23" s="35"/>
       <c r="P23" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102367</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="0"/>
@@ -4740,28 +4817,35 @@
         <v>44954</v>
       </c>
       <c r="F24" s="28">
-        <v>0</v>
+        <v>69253</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
         <v>44954</v>
       </c>
       <c r="I24" s="31">
-        <v>0</v>
-      </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+        <v>227.5</v>
+      </c>
+      <c r="J24" s="62">
+        <v>44954</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="64">
+        <v>8900</v>
+      </c>
       <c r="M24" s="33">
-        <v>0</v>
+        <f>26833.5+27000</f>
+        <v>53833.5</v>
       </c>
       <c r="N24" s="34">
-        <v>0</v>
+        <v>6292</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69253</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="0"/>
@@ -4785,7 +4869,7 @@
         <v>44955</v>
       </c>
       <c r="F25" s="28">
-        <v>0</v>
+        <v>100451</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
@@ -4810,7 +4894,7 @@
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-100451</v>
       </c>
       <c r="R25" s="13">
         <v>0</v>
@@ -5628,21 +5712,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="246">
+      <c r="M49" s="249">
         <f>SUM(M5:M39)</f>
-        <v>457788.5</v>
-      </c>
-      <c r="N49" s="257">
+        <v>1569847.5</v>
+      </c>
+      <c r="N49" s="260">
         <f>SUM(N5:N39)</f>
-        <v>16534</v>
+        <v>46551</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>474322.5</v>
+        <v>1616398.5</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>-100450</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -5661,8 +5745,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="247"/>
-      <c r="N50" s="258"/>
+      <c r="M50" s="250"/>
+      <c r="N50" s="261"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -5838,7 +5922,7 @@
       </c>
       <c r="C60" s="124">
         <f>SUM(C5:C59)</f>
-        <v>27610</v>
+        <v>63892</v>
       </c>
       <c r="D60" s="125"/>
       <c r="E60" s="126" t="s">
@@ -5846,7 +5930,7 @@
       </c>
       <c r="F60" s="127">
         <f>SUM(F5:F59)</f>
-        <v>477244</v>
+        <v>1784265</v>
       </c>
       <c r="G60" s="125"/>
       <c r="H60" s="128" t="s">
@@ -5854,7 +5938,7 @@
       </c>
       <c r="I60" s="129">
         <f>SUM(I5:I59)</f>
-        <v>1927.5</v>
+        <v>5360.5</v>
       </c>
       <c r="J60" s="130"/>
       <c r="K60" s="131" t="s">
@@ -5862,7 +5946,7 @@
       </c>
       <c r="L60" s="132">
         <f>SUM(L5:L59)</f>
-        <v>8900</v>
+        <v>51500</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="133"/>
@@ -5880,32 +5964,32 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="259" t="s">
+      <c r="H62" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="260"/>
+      <c r="I62" s="263"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="261">
+      <c r="K62" s="264">
         <f>I60+L60</f>
-        <v>10827.5</v>
-      </c>
-      <c r="L62" s="262"/>
-      <c r="M62" s="263">
+        <v>56860.5</v>
+      </c>
+      <c r="L62" s="265"/>
+      <c r="M62" s="266">
         <f>N49+M49</f>
-        <v>474322.5</v>
-      </c>
-      <c r="N62" s="264"/>
+        <v>1616398.5</v>
+      </c>
+      <c r="N62" s="267"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="256" t="s">
+      <c r="D63" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="256"/>
+      <c r="E63" s="259"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
-        <v>438806.5</v>
+        <v>1663512.5</v>
       </c>
       <c r="I63" s="139"/>
       <c r="J63" s="140"/>
@@ -5913,22 +5997,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="227" t="s">
+      <c r="D64" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="227"/>
+      <c r="E64" s="230"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="228" t="s">
+      <c r="I64" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="229"/>
-      <c r="K64" s="230">
+      <c r="J64" s="232"/>
+      <c r="K64" s="233">
         <f>F66+F67+F68</f>
-        <v>-862060.08</v>
-      </c>
-      <c r="L64" s="231"/>
+        <v>362645.92000000004</v>
+      </c>
+      <c r="L64" s="234"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -5952,18 +6036,18 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>-1085588.98</v>
+        <v>139117.02000000002</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="232">
+      <c r="K66" s="235">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="233"/>
+      <c r="L66" s="236"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -5980,22 +6064,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="234" t="s">
+      <c r="D68" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="235"/>
+      <c r="E68" s="238"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="236" t="s">
+      <c r="I68" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="237"/>
-      <c r="K68" s="238">
+      <c r="J68" s="240"/>
+      <c r="K68" s="241">
         <f>K64+K66</f>
-        <v>-862060.08</v>
-      </c>
-      <c r="L68" s="238"/>
+        <v>362645.92000000004</v>
+      </c>
+      <c r="L68" s="241"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -6143,8 +6227,9 @@
     <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7507,23 +7592,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="243"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7533,21 +7618,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="248"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="251" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7562,14 +7647,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="250" t="s">
+      <c r="E4" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="251"/>
-      <c r="H4" s="252" t="s">
+      <c r="F4" s="254"/>
+      <c r="H4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="253"/>
+      <c r="I4" s="256"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7579,11 +7664,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="254" t="s">
+      <c r="P4" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="252"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9402,11 +9487,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="246">
+      <c r="M49" s="249">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="257">
+      <c r="N49" s="260">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -9435,8 +9520,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="247"/>
-      <c r="N50" s="258"/>
+      <c r="M50" s="250"/>
+      <c r="N50" s="261"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9654,29 +9739,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="259" t="s">
+      <c r="H62" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="260"/>
+      <c r="I62" s="263"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="261">
+      <c r="K62" s="264">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="262"/>
-      <c r="M62" s="263">
+      <c r="L62" s="265"/>
+      <c r="M62" s="266">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="264"/>
+      <c r="N62" s="267"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="256" t="s">
+      <c r="D63" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="256"/>
+      <c r="E63" s="259"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>0</v>
@@ -9687,22 +9772,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="227" t="s">
+      <c r="D64" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="227"/>
+      <c r="E64" s="230"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="228" t="s">
+      <c r="I64" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="229"/>
-      <c r="K64" s="230">
+      <c r="J64" s="232"/>
+      <c r="K64" s="233">
         <f>F66+F67+F68</f>
         <v>-1524395.48</v>
       </c>
-      <c r="L64" s="231"/>
+      <c r="L64" s="234"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -9733,11 +9818,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="232">
+      <c r="K66" s="235">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="233"/>
+      <c r="L66" s="236"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -9754,22 +9839,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="234" t="s">
+      <c r="D68" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="235"/>
+      <c r="E68" s="238"/>
       <c r="F68" s="153">
         <v>0</v>
       </c>
-      <c r="I68" s="236" t="s">
+      <c r="I68" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="237"/>
-      <c r="K68" s="238">
+      <c r="J68" s="240"/>
+      <c r="K68" s="241">
         <f>K64+K66</f>
         <v>-1524395.48</v>
       </c>
-      <c r="L68" s="238"/>
+      <c r="L68" s="241"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -11129,8 +11214,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11155,23 +11240,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="239"/>
-      <c r="C1" s="241" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="240"/>
+      <c r="B2" s="243"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11181,21 +11266,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="243" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="244"/>
+      <c r="B3" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="245"/>
+      <c r="I3" s="248"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="248" t="s">
+      <c r="R3" s="251" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11210,14 +11295,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="250" t="s">
+      <c r="E4" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="251"/>
-      <c r="H4" s="252" t="s">
+      <c r="F4" s="254"/>
+      <c r="H4" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="253"/>
+      <c r="I4" s="256"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11227,11 +11312,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="254" t="s">
+      <c r="P4" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="249"/>
+      <c r="Q4" s="258"/>
+      <c r="R4" s="252"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -11474,7 +11559,7 @@
         <v>44940</v>
       </c>
       <c r="F10" s="28">
-        <v>59345</v>
+        <v>0</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30">
@@ -11499,7 +11584,7 @@
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="0"/>
-        <v>-59345</v>
+        <v>0</v>
       </c>
       <c r="R10" s="13">
         <v>0</v>
@@ -11522,7 +11607,7 @@
         <v>44941</v>
       </c>
       <c r="F11" s="28">
-        <v>119768</v>
+        <v>0</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
@@ -11547,7 +11632,7 @@
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="0"/>
-        <v>-119768</v>
+        <v>0</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -11567,7 +11652,7 @@
         <v>44942</v>
       </c>
       <c r="F12" s="28">
-        <v>132033</v>
+        <v>0</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
@@ -11592,7 +11677,7 @@
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="0"/>
-        <v>-132033</v>
+        <v>0</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -11612,7 +11697,7 @@
         <v>44943</v>
       </c>
       <c r="F13" s="28">
-        <v>79932</v>
+        <v>0</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
@@ -11637,7 +11722,7 @@
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="0"/>
-        <v>-79932</v>
+        <v>0</v>
       </c>
       <c r="R13" s="13">
         <v>0</v>
@@ -11657,7 +11742,7 @@
         <v>44944</v>
       </c>
       <c r="F14" s="28">
-        <v>37644</v>
+        <v>0</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
@@ -11682,7 +11767,7 @@
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="0"/>
-        <v>-37644</v>
+        <v>0</v>
       </c>
       <c r="R14" s="13">
         <v>0</v>
@@ -11702,7 +11787,7 @@
         <v>44945</v>
       </c>
       <c r="F15" s="28">
-        <v>87735</v>
+        <v>0</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
@@ -11727,7 +11812,7 @@
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="0"/>
-        <v>-87735</v>
+        <v>0</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -11747,7 +11832,7 @@
         <v>44946</v>
       </c>
       <c r="F16" s="28">
-        <v>81640</v>
+        <v>0</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
@@ -11772,7 +11857,7 @@
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="0"/>
-        <v>-81640</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
@@ -11792,7 +11877,7 @@
         <v>44947</v>
       </c>
       <c r="F17" s="28">
-        <v>65320</v>
+        <v>0</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
@@ -11817,7 +11902,7 @@
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="0"/>
-        <v>-65320</v>
+        <v>0</v>
       </c>
       <c r="R17" s="13">
         <v>0</v>
@@ -11837,7 +11922,7 @@
         <v>44948</v>
       </c>
       <c r="F18" s="28">
-        <v>110009</v>
+        <v>0</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
@@ -11862,7 +11947,7 @@
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="0"/>
-        <v>-110009</v>
+        <v>0</v>
       </c>
       <c r="R18" s="13">
         <v>0</v>
@@ -11882,7 +11967,7 @@
         <v>44949</v>
       </c>
       <c r="F19" s="28">
-        <v>64409</v>
+        <v>0</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
@@ -11907,7 +11992,7 @@
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="0"/>
-        <v>-64409</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13">
         <v>0</v>
@@ -11927,7 +12012,7 @@
         <v>44950</v>
       </c>
       <c r="F20" s="28">
-        <v>132246</v>
+        <v>0</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
@@ -11952,7 +12037,7 @@
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="0"/>
-        <v>-132246</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13">
         <v>0</v>
@@ -11972,7 +12057,7 @@
         <v>44951</v>
       </c>
       <c r="F21" s="28">
-        <v>62087</v>
+        <v>0</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
@@ -12016,7 +12101,7 @@
         <v>44952</v>
       </c>
       <c r="F22" s="28">
-        <v>62127</v>
+        <v>0</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
@@ -12041,7 +12126,7 @@
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="0"/>
-        <v>-62127</v>
+        <v>0</v>
       </c>
       <c r="R22" s="13">
         <v>0</v>
@@ -12061,7 +12146,7 @@
         <v>44953</v>
       </c>
       <c r="F23" s="28">
-        <v>102367</v>
+        <v>0</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
@@ -12086,7 +12171,7 @@
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="0"/>
-        <v>-102367</v>
+        <v>0</v>
       </c>
       <c r="R23" s="13">
         <v>0</v>
@@ -12106,7 +12191,7 @@
         <v>44954</v>
       </c>
       <c r="F24" s="28">
-        <v>69253</v>
+        <v>0</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
@@ -12131,7 +12216,7 @@
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="0"/>
-        <v>-69253</v>
+        <v>0</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>
@@ -12151,7 +12236,7 @@
         <v>44955</v>
       </c>
       <c r="F25" s="28">
-        <v>100451</v>
+        <v>0</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
@@ -12176,7 +12261,7 @@
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="0"/>
-        <v>-100451</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13">
         <v>0</v>
@@ -12994,11 +13079,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="246">
+      <c r="M49" s="249">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="257">
+      <c r="N49" s="260">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13008,7 +13093,7 @@
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>-2084983</v>
+        <v>-780704</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -13027,8 +13112,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="247"/>
-      <c r="N50" s="258"/>
+      <c r="M50" s="250"/>
+      <c r="N50" s="261"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13212,7 +13297,7 @@
       </c>
       <c r="F60" s="127">
         <f>SUM(F5:F59)</f>
-        <v>2147070</v>
+        <v>780704</v>
       </c>
       <c r="G60" s="125"/>
       <c r="H60" s="128" t="s">
@@ -13246,32 +13331,32 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="259" t="s">
+      <c r="H62" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="260"/>
+      <c r="I62" s="263"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="261">
+      <c r="K62" s="264">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="262"/>
-      <c r="M62" s="263">
+      <c r="L62" s="265"/>
+      <c r="M62" s="266">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="264"/>
+      <c r="N62" s="267"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="256" t="s">
+      <c r="D63" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="256"/>
+      <c r="E63" s="259"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
-        <v>2147070</v>
+        <v>780704</v>
       </c>
       <c r="I63" s="139"/>
       <c r="J63" s="140"/>
@@ -13279,22 +13364,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="227" t="s">
+      <c r="D64" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="227"/>
+      <c r="E64" s="230"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="228" t="s">
+      <c r="I64" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="229"/>
-      <c r="K64" s="230">
+      <c r="J64" s="232"/>
+      <c r="K64" s="233">
         <f>F66+F67+F68</f>
-        <v>846203.42</v>
-      </c>
-      <c r="L64" s="231"/>
+        <v>-520162.57999999996</v>
+      </c>
+      <c r="L64" s="234"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13318,18 +13403,18 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>622674.52</v>
+        <v>-743691.48</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="232">
+      <c r="K66" s="235">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="233"/>
+      <c r="L66" s="236"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13346,22 +13431,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="234" t="s">
+      <c r="D68" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="235"/>
+      <c r="E68" s="238"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="236" t="s">
+      <c r="I68" s="239" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="237"/>
-      <c r="K68" s="238">
+      <c r="J68" s="240"/>
+      <c r="K68" s="241">
         <f>K64+K66</f>
-        <v>846203.42</v>
-      </c>
-      <c r="L68" s="238"/>
+        <v>-520162.57999999996</v>
+      </c>
+      <c r="L68" s="241"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  HERRADURA  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/BALANCE  HERRADURA  ENERO 2023.xlsx
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>373948.72</v>
       </c>
       <c r="D4" s="17">
         <v>44934</v>
@@ -4876,25 +4876,26 @@
         <v>44955</v>
       </c>
       <c r="I25" s="31">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="J25" s="65"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67"/>
       <c r="M25" s="33">
-        <v>0</v>
+        <f>76750+8550+11200</f>
+        <v>96500</v>
       </c>
       <c r="N25" s="34">
-        <v>0</v>
+        <v>2848</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100451</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="0"/>
-        <v>-100451</v>
+        <v>0</v>
       </c>
       <c r="R25" s="13">
         <v>0</v>
@@ -4906,12 +4907,8 @@
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="27">
-        <v>44956</v>
-      </c>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="29"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
@@ -4943,12 +4940,8 @@
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="27">
-        <v>44957</v>
-      </c>
-      <c r="F27" s="28">
-        <v>0</v>
-      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="31"/>
@@ -4975,17 +4968,13 @@
       </c>
       <c r="S27" s="37"/>
     </row>
-    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="27">
-        <v>44927</v>
-      </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="29"/>
       <c r="H28" s="30"/>
       <c r="I28" s="31"/>
@@ -5012,17 +5001,13 @@
       </c>
       <c r="S28" s="37"/>
     </row>
-    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
       <c r="D29" s="72"/>
-      <c r="E29" s="27">
-        <v>44928</v>
-      </c>
-      <c r="F29" s="28">
-        <v>0</v>
-      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
@@ -5050,17 +5035,13 @@
       <c r="S29" s="37"/>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
       <c r="D30" s="72"/>
-      <c r="E30" s="27">
-        <v>44929</v>
-      </c>
-      <c r="F30" s="28">
-        <v>0</v>
-      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
       <c r="I30" s="31"/>
@@ -5087,17 +5068,13 @@
       </c>
       <c r="S30" s="37"/>
     </row>
-    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="77"/>
-      <c r="E31" s="27">
-        <v>44930</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
       <c r="I31" s="31"/>
@@ -5124,17 +5101,13 @@
       </c>
       <c r="S31" s="37"/>
     </row>
-    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="82"/>
-      <c r="E32" s="27">
-        <v>44931</v>
-      </c>
-      <c r="F32" s="28">
-        <v>0</v>
-      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
       <c r="I32" s="31"/>
@@ -5161,17 +5134,13 @@
       </c>
       <c r="S32" s="37"/>
     </row>
-    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="80"/>
-      <c r="E33" s="27">
-        <v>44932</v>
-      </c>
-      <c r="F33" s="28">
-        <v>0</v>
-      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
       <c r="I33" s="31"/>
@@ -5198,17 +5167,13 @@
       </c>
       <c r="S33" s="37"/>
     </row>
-    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="82"/>
-      <c r="E34" s="27">
-        <v>44933</v>
-      </c>
-      <c r="F34" s="28">
-        <v>0</v>
-      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
@@ -5235,14 +5200,12 @@
       </c>
       <c r="S34" s="37"/>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="77"/>
-      <c r="E35" s="27">
-        <v>44934</v>
-      </c>
+      <c r="E35" s="27"/>
       <c r="F35" s="28">
         <v>0</v>
       </c>
@@ -5272,7 +5235,7 @@
       </c>
       <c r="S35" s="37"/>
     </row>
-    <row r="36" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -5305,7 +5268,7 @@
       </c>
       <c r="S36" s="37"/>
     </row>
-    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -5338,7 +5301,7 @@
       </c>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -5371,7 +5334,7 @@
       </c>
       <c r="S38" s="37"/>
     </row>
-    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -5404,7 +5367,7 @@
       </c>
       <c r="S39" s="37"/>
     </row>
-    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -5437,7 +5400,7 @@
       </c>
       <c r="S40" s="37"/>
     </row>
-    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -5470,7 +5433,7 @@
       </c>
       <c r="S41" s="37"/>
     </row>
-    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -5503,7 +5466,7 @@
       </c>
       <c r="S42" s="37"/>
     </row>
-    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -5536,7 +5499,7 @@
       </c>
       <c r="S43" s="37"/>
     </row>
-    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -5569,7 +5532,7 @@
       </c>
       <c r="S44" s="37"/>
     </row>
-    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -5602,7 +5565,7 @@
       </c>
       <c r="S45" s="37"/>
     </row>
-    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -5635,7 +5598,7 @@
       </c>
       <c r="S46" s="37"/>
     </row>
-    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
@@ -5714,19 +5677,19 @@
       <c r="L49" s="76"/>
       <c r="M49" s="249">
         <f>SUM(M5:M39)</f>
-        <v>1569847.5</v>
+        <v>1666347.5</v>
       </c>
       <c r="N49" s="260">
         <f>SUM(N5:N39)</f>
-        <v>46551</v>
+        <v>49399</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>1616398.5</v>
+        <v>1715746.5</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>-100450</v>
+        <v>1</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -5938,7 +5901,7 @@
       </c>
       <c r="I60" s="129">
         <f>SUM(I5:I59)</f>
-        <v>5360.5</v>
+        <v>6463.5</v>
       </c>
       <c r="J60" s="130"/>
       <c r="K60" s="131" t="s">
@@ -5971,12 +5934,12 @@
       <c r="J62" s="137"/>
       <c r="K62" s="264">
         <f>I60+L60</f>
-        <v>56860.5</v>
+        <v>57963.5</v>
       </c>
       <c r="L62" s="265"/>
       <c r="M62" s="266">
         <f>N49+M49</f>
-        <v>1616398.5</v>
+        <v>1715746.5</v>
       </c>
       <c r="N62" s="267"/>
       <c r="P62" s="36"/>
@@ -5989,7 +5952,7 @@
       <c r="E63" s="259"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
-        <v>1663512.5</v>
+        <v>1662409.5</v>
       </c>
       <c r="I63" s="139"/>
       <c r="J63" s="140"/>
@@ -6010,7 +5973,7 @@
       <c r="J64" s="232"/>
       <c r="K64" s="233">
         <f>F66+F67+F68</f>
-        <v>362645.92000000004</v>
+        <v>399275.92000000004</v>
       </c>
       <c r="L64" s="234"/>
       <c r="P64" s="36"/>
@@ -6036,7 +5999,7 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>139117.02000000002</v>
+        <v>138014.02000000002</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
@@ -6045,7 +6008,7 @@
       <c r="J66" s="149"/>
       <c r="K66" s="235">
         <f>-C4</f>
-        <v>0</v>
+        <v>-373948.72</v>
       </c>
       <c r="L66" s="236"/>
     </row>
@@ -6057,7 +6020,7 @@
         <v>21</v>
       </c>
       <c r="F67" s="151">
-        <v>0</v>
+        <v>37733</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6077,7 +6040,7 @@
       <c r="J68" s="240"/>
       <c r="K68" s="241">
         <f>K64+K66</f>
-        <v>362645.92000000004</v>
+        <v>25327.20000000007</v>
       </c>
       <c r="L68" s="241"/>
     </row>
@@ -11215,7 +11178,7 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
